--- a/myapp/management/commands/data1.xlsx
+++ b/myapp/management/commands/data1.xlsx
@@ -157,7 +157,7 @@
     <t xml:space="preserve">Pfizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Weighted quantitative estimate of drug-likeness (QEDw) score</t>
+    <t xml:space="preserve">QEDw_ score</t>
   </si>
   <si>
     <t xml:space="preserve">Bioavailability score</t>
@@ -361,16 +361,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -453,403 +457,409 @@
   </sheetPr>
   <dimension ref="A1:BL2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BK1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="BK1" activeCellId="0" sqref="BK1"/>
+      <selection pane="bottomLeft" activeCell="BK10" activeCellId="0" sqref="BK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.94921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="112.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="38.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="112.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="38.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="38.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="30.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="54.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="22.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="69.72"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>10621</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3" t="n">
         <v>1794015</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="3" t="n">
         <v>1.945</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="3" t="n">
         <v>610.57</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>-1.16</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="Y2" s="2" t="n">
+      <c r="Y2" s="3" t="n">
         <v>0.39</v>
       </c>
-      <c r="Z2" s="2" t="n">
+      <c r="Z2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AA2" s="2" t="n">
+      <c r="AA2" s="3" t="n">
         <v>0.54</v>
       </c>
-      <c r="AB2" s="2" t="n">
+      <c r="AB2" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="AC2" s="2" t="n">
+      <c r="AC2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AD2" s="2" t="n">
+      <c r="AD2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="AE2" s="2" t="n">
+      <c r="AE2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="AF2" s="2" t="n">
+      <c r="AF2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="AG2" s="2" t="n">
+      <c r="AG2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AH2" s="2" t="n">
+      <c r="AH2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="AI2" s="2" t="n">
+      <c r="AI2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AJ2" s="2" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AK2" s="2" t="n">
+      <c r="AK2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="AL2" s="2" t="n">
+      <c r="AL2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="AM2" s="2" t="n">
+      <c r="AM2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AN2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AO2" s="2" t="n">
+      <c r="AO2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="AP2" s="2" t="n">
+      <c r="AP2" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AR2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AS2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AT2" s="2" t="n">
+      <c r="AT2" s="3" t="n">
         <v>0.1847</v>
       </c>
-      <c r="AU2" s="2" t="n">
+      <c r="AU2" s="3" t="n">
         <v>0.17</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AV2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AW2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AX2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AY2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AZ2" s="2" t="n">
+      <c r="AZ2" s="3" t="n">
         <v>-10.12</v>
       </c>
-      <c r="BA2" s="2" t="n">
+      <c r="BA2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="BB2" s="2" t="n">
+      <c r="BB2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BC2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BD2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BE2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BF2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BG2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BH2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BI2" s="2" t="n">
+      <c r="BI2" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="BJ2" s="2" t="n">
+      <c r="BJ2" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BK2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BL2" s="2" t="n">
+      <c r="BL2" s="3" t="n">
         <v>234.29</v>
       </c>
     </row>

--- a/myapp/management/commands/data1.xlsx
+++ b/myapp/management/commands/data1.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Annotations" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Annotations!$A$1:$BL$2</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -387,6 +390,37 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF2A6099"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5EB91E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -450,29 +484,33 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BL2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BK1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="BK1" activeCellId="0" sqref="BK1"/>
-      <selection pane="bottomLeft" activeCell="BK10" activeCellId="0" sqref="BK10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.94921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="112.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="38.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="38.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="30.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="54.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="27.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="22.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="69.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="38.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="30.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="54.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="22.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="69.72"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,6 +902,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BL2">
+    <filterColumn colId="1">
+      <colorFilter cellColor="1" dxfId="1"/>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -871,5 +914,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>